--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_101.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,640 +488,650 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_160</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09973474801061008</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[['Eb:7', 'Ab:maj', 'Ab/7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(18.0, 26.46)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:06.440000', '0:00:14.560000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:54.072000', '0:01:00.759000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.54, 26.3)]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(59.1, 69.0)]</t>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(44.62, 47.46), (101.18, 113.78)]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(169.84, 172.42), (20.86, 27.06)]</t>
+          <t>[('0:00:04.820000', '0:00:22.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:06.620000', '0:02:09.240000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.203125</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_241</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1360323886639676</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['D:7', 'G:7', 'C']]</t>
+          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(224.58, 232.16), (56.92, 63.56)]</t>
+          <t>[['C', 'D:min', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36), (22.89, 24.46)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:22.620000', '0:00:29.140000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:42.694000', '0:01:52.530000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.287037037037037</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(31.89, 35.47)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(224.02, 236.36)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.45</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04753989361702127</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:7', 'G:7'], ['D:min7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7'], ['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.37, 9.7), (11.26, 13.58)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(31.66, 34.89), (13.21, 15.93)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[('0:00:55.680000', '0:01:06.100000'), ('0:02:09.820000', '0:02:25.660000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1345029239766082</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5267857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(44.836, 49.319)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.577709, 29.878843)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:07.668956', '0:00:11.140340')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:7', 'B:maj', 'F#:maj']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4356060606060606</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E/4']]</t>
+          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.54, 11.6)]</t>
+          <t>[['D', 'G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(48.277, 54.481)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:09.967000', '0:00:18.837000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:28.800769', '0:00:46.169854')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_189</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07187499999999999</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb:min', 'Db', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'C', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(25.350952, 28.787505)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(24.364104, 33.524375)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1052955665024631</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'B'], ['B', 'E', 'B'], ['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D/3'], ['D', 'G', 'D'], ['C', 'D', 'G']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.672857, 20.660521), (46.272131, 52.17), (44.310045, 50.196303)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(78.061859, 81.614512), (0.440395, 3.583854), (6.126439, 9.980952)]</t>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(66.92, 68.18)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1812434141201265</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'Eb', 'E', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'A:maj', 'A#:maj', 'A:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(4.99, 7.14)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(51.94, 57.06)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(75.56, 95.68)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(120.66, 122.74)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
